--- a/BalanceSheet/CRL_bal.xlsx
+++ b/BalanceSheet/CRL_bal.xlsx
@@ -494,19 +494,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-4324000.0</v>
+        <v>186000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-12154000.0</v>
+        <v>181000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-5977000.0</v>
+        <v>168000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>4076000.0</v>
+        <v>163000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-8418000.0</v>
+        <v>161000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>155526000.0</v>
@@ -1802,19 +1802,19 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>13075000.0</v>
+        <v>122000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>13292000.0</v>
+        <v>97000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>-15616000.0</v>
+        <v>83000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>-10003000.0</v>
+        <v>103000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>5294000.0</v>
+        <v>111000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>107231000.0</v>
@@ -3060,19 +3060,19 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>2998000.0</v>
+        <v>179000000.0</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>-3279000.0</v>
+        <v>163000000.0</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>3121000.0</v>
+        <v>159000000.0</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>-2973000.0</v>
+        <v>154000000.0</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>3197000.0</v>
+        <v>123000000.0</v>
       </c>
       <c r="G23" s="0" t="n">
         <v>165480000.0</v>
